--- a/analysis/paper_data/firstyear/semantic_heads.xlsx
+++ b/analysis/paper_data/firstyear/semantic_heads.xlsx
@@ -14,84 +14,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>יום</t>
-  </si>
-  <si>
-    <t>שׁנה</t>
-  </si>
-  <si>
-    <t>עולם</t>
-  </si>
-  <si>
-    <t>עת</t>
-  </si>
-  <si>
-    <t>לילה</t>
-  </si>
-  <si>
-    <t>בקר</t>
-  </si>
-  <si>
-    <t>ערב</t>
-  </si>
-  <si>
-    <t>חדשׁ</t>
-  </si>
-  <si>
-    <t>אחר</t>
-  </si>
-  <si>
-    <t>יומם</t>
-  </si>
-  <si>
-    <t>מחר</t>
-  </si>
-  <si>
-    <t>תמיד</t>
-  </si>
-  <si>
-    <t>מות</t>
-  </si>
-  <si>
-    <t>נצח</t>
-  </si>
-  <si>
-    <t>מתי</t>
-  </si>
-  <si>
-    <t>מחרת</t>
-  </si>
-  <si>
-    <t>פנה</t>
-  </si>
-  <si>
-    <t>דור</t>
-  </si>
-  <si>
-    <t>עד</t>
-  </si>
-  <si>
-    <t>ראשׁון</t>
-  </si>
-  <si>
-    <t>תמול</t>
-  </si>
-  <si>
-    <t>דבר</t>
-  </si>
-  <si>
-    <t>מועד</t>
-  </si>
-  <si>
-    <t>אן</t>
-  </si>
-  <si>
-    <t>צהרים</t>
+    <t>יֹום</t>
+  </si>
+  <si>
+    <t>שָׁנָה</t>
+  </si>
+  <si>
+    <t>עֹולָם</t>
+  </si>
+  <si>
+    <t>עֵת</t>
+  </si>
+  <si>
+    <t>לַיְלָה</t>
+  </si>
+  <si>
+    <t>בֹּקֶר</t>
+  </si>
+  <si>
+    <t>עֶרֶב</t>
+  </si>
+  <si>
+    <t>חֹדֶשׁ</t>
+  </si>
+  <si>
+    <t>אַחַר</t>
+  </si>
+  <si>
+    <t>יֹומָם</t>
+  </si>
+  <si>
+    <t>מָחָר</t>
+  </si>
+  <si>
+    <t>תָּמִיד</t>
+  </si>
+  <si>
+    <t>מָוֶת</t>
+  </si>
+  <si>
+    <t>נֵצַח</t>
+  </si>
+  <si>
+    <t>מָתַי</t>
+  </si>
+  <si>
+    <t>מָחֳרָת</t>
+  </si>
+  <si>
+    <t>פָּנֶה</t>
+  </si>
+  <si>
+    <t>דֹּור</t>
+  </si>
+  <si>
+    <t>עַד</t>
+  </si>
+  <si>
+    <t>רִאשֹׁון</t>
+  </si>
+  <si>
+    <t>תְּמֹול</t>
+  </si>
+  <si>
+    <t>צָהֳרַיִם</t>
+  </si>
+  <si>
+    <t>מֹועֵד</t>
+  </si>
+  <si>
+    <t>דָּבָר</t>
+  </si>
+  <si>
+    <t>אָן</t>
+  </si>
+  <si>
+    <t>אֶחָד</t>
+  </si>
+  <si>
+    <t>שַׁבָּת</t>
+  </si>
+  <si>
+    <t>רֶגַע</t>
+  </si>
+  <si>
+    <t>נְעוּרִים</t>
+  </si>
+  <si>
+    <t>חַיִּים</t>
+  </si>
+  <si>
+    <t>שָׁבוּעַ</t>
+  </si>
+  <si>
+    <t>אֶתְמֹול</t>
+  </si>
+  <si>
+    <t>הֵנָּה</t>
+  </si>
+  <si>
+    <t>בֶּטֶן</t>
+  </si>
+  <si>
+    <t>שְׁבִיעִי</t>
+  </si>
+  <si>
+    <t>נֶשֶׁף</t>
+  </si>
+  <si>
+    <t>רֹאשׁ</t>
+  </si>
+  <si>
+    <t>אַרְבַּע</t>
+  </si>
+  <si>
+    <t>רֵאשִׁית</t>
+  </si>
+  <si>
+    <t>תְּחִלָּה</t>
+  </si>
+  <si>
+    <t>יֶרַח</t>
+  </si>
+  <si>
+    <t>אֶמֶשׁ</t>
+  </si>
+  <si>
+    <t>שָׁלֹשׁ</t>
+  </si>
+  <si>
+    <t>מַלְכוּת</t>
+  </si>
+  <si>
+    <t>תְּשׁוּבָה</t>
+  </si>
+  <si>
+    <t>זֹאת</t>
+  </si>
+  <si>
+    <t>קֶדֶם</t>
+  </si>
+  <si>
+    <t>אַחֲרֹון</t>
+  </si>
+  <si>
+    <t>קַיִץ</t>
+  </si>
+  <si>
+    <t>טֶרֶם</t>
   </si>
 </sst>
 </file>
@@ -449,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,7 +708,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -658,6 +733,206 @@
       </c>
       <c r="B26">
         <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
